--- a/outputs-HGR-r202/o__Verrucomicrobiales.xlsx
+++ b/outputs-HGR-r202/o__Verrucomicrobiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -685,6 +750,11 @@
         <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Verrucomicrobiales.xlsx
+++ b/outputs-HGR-r202/o__Verrucomicrobiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>28724.4160595666</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>96498.87512547724</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>96484.65499409501</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -537,17 +523,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>81949.7884529935</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -560,17 +543,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>48389.93740341972</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -583,17 +563,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>104549.8678707865</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -606,17 +583,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>102228.8371356339</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -629,17 +603,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>81280.10152616494</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -652,17 +623,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>82870.82047733865</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -675,17 +643,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>87521.31450254522</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -698,17 +663,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>87480.36544053428</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -721,17 +683,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>121875.6974668384</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
@@ -744,17 +703,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>50698.79915833386</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Verrucomicrobiales.xlsx
+++ b/outputs-HGR-r202/o__Verrucomicrobiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -478,11 +473,6 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,11 +491,6 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -520,11 +505,6 @@
         <v>81280.10152616494</v>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>f__Akkermansiaceae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Verrucomicrobiales.xlsx
+++ b/outputs-HGR-r202/o__Verrucomicrobiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>f__Akkermansiaceae</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,6 +520,11 @@
         <v>81280.10152616494</v>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>f__Akkermansiaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>f__Akkermansiaceae</t>
         </is>
